--- a/data/results_guild_boss.xlsx
+++ b/data/results_guild_boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>damage</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Chessia</t>
   </si>
   <si>
+    <t>Dettlaff</t>
+  </si>
+  <si>
     <t>Drow</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Nameless_King</t>
   </si>
   <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
     <t>Orphee</t>
   </si>
   <si>
@@ -154,127 +160,133 @@
     <t>Xexanoth</t>
   </si>
   <si>
-    <t>{'Total': 787402, 'attack': 315575, 'Abyssal Blade': 471828}</t>
-  </si>
-  <si>
-    <t>{'Total': 4923796, 'attack': 787301, 'Strangle': 4136495}</t>
-  </si>
-  <si>
-    <t>{'Total': 3957722, 'Power Torture': 2173157, 'attack': 1784565}</t>
-  </si>
-  <si>
-    <t>{'Total': 5926185, 'Dual Throwing Axe': 3597932, 'Toxic Blade': 1294922, 'attack': 1033330}</t>
-  </si>
-  <si>
-    <t>{'Total': 10473196, 'Black Hole Generated': 9875789, 'attack': 597407}</t>
-  </si>
-  <si>
-    <t>{'Total': 3429783, 'Heart-Taking Thorn': 2797942, 'attack': 631841}</t>
-  </si>
-  <si>
-    <t>{'Total': 2222451, 'Spider Attack': 1687162, 'attack': 535289}</t>
-  </si>
-  <si>
-    <t>{'Total': 2836683, 'Hollow Descent': 2148599, 'attack': 688084}</t>
-  </si>
-  <si>
-    <t>{'Total': 1655268, 'attack': 460458, 'Wheel Of Torture': 1194809}</t>
-  </si>
-  <si>
-    <t>{'Total': 1113187, "Nature's Power": 461542, 'Leech Seed': 349713, 'attack': 301932}</t>
-  </si>
-  <si>
-    <t>{'Total': 1637300, 'Soul Pulse': 1163098, 'attack': 474203}</t>
-  </si>
-  <si>
-    <t>{'Total': 2742184, 'attack': 978639, 'Blood Axe': 1763545}</t>
-  </si>
-  <si>
-    <t>{'Total': 3549904, 'Throat Blade': 2315126, 'attack': 1234778}</t>
-  </si>
-  <si>
-    <t>{'Total': 2088201, 'Shooting Star': 1180425, 'attack': 907776}</t>
-  </si>
-  <si>
-    <t>{'Total': 5653479, 'Eye Of Thunderstorm': 4694706, 'attack': 958773}</t>
-  </si>
-  <si>
-    <t>{'Total': 2933837, 'attack': 734562, 'Hand Of God': 2199275}</t>
-  </si>
-  <si>
-    <t>{'Total': 2991223, 'attack': 1041288, 'Viper Arrow': 1949935}</t>
-  </si>
-  <si>
-    <t>{'Total': 1340160, 'Sacred Heal': 1003282, 'attack': 275043, 'Forbidden Tome': 61835}</t>
-  </si>
-  <si>
-    <t>{'Total': 1272091, 'attack': 359693, 'Fury Swipes': 912398}</t>
-  </si>
-  <si>
-    <t>{'Total': 4698063, 'Fight Against Buddha': 1779352, 'Boundless Strike': 2076638, 'attack': 423480, 'Cudgel Mastery': 418593}</t>
-  </si>
-  <si>
-    <t>{'Total': 1553716, 'attack': 355282, 'Gale Cut': 1198433}</t>
-  </si>
-  <si>
-    <t>{'Total': 5295627, 'Lightning Storm': 3772897, 'attack': 910977, 'Sign Of Sun': 341399, 'Dragon Sphere': 270354}</t>
-  </si>
-  <si>
-    <t>{'Total': 1868732, 'attack': 544636, 'Starstorm': 1324097}</t>
-  </si>
-  <si>
-    <t>{'Total': 3007169, 'Fatal Wave': 2188891, 'attack': 674375, 'Pit Of Malice': 143903}</t>
-  </si>
-  <si>
-    <t>{'Total': 4556465, 'Venom Wind': 2399385, 'attack': 640870, 'Poison Dagger': 1316429, 'Poison Nova': 199782}</t>
-  </si>
-  <si>
-    <t>{'Total': 691504, 'attack': 331086, 'Nightmare': 360417}</t>
-  </si>
-  <si>
-    <t>{'Total': 4149836, 'Kifuu': 3021303, 'attack': 740028, 'Flash': 388505}</t>
-  </si>
-  <si>
-    <t>{'Total': 2108108, 'Whirlwind Of Death': 1721860, 'attack': 386248}</t>
-  </si>
-  <si>
-    <t>{'Total': 3336409, 'Poison Nova': 1940587, 'attack': 347734, 'Poison Touch': 373158, 'Corrosive Skin': 398768, 'Malefic': 276162}</t>
-  </si>
-  <si>
-    <t>{'Total': 2208773, 'Tentacle Attack': 1623892, 'attack': 584881}</t>
-  </si>
-  <si>
-    <t>{'Total': 1818420, 'Plasma Field': 1329928, 'attack': 488492}</t>
-  </si>
-  <si>
-    <t>{'Total': 2474193, 'Tiger Attack': 1800961, 'attack': 298289, 'Shield Breaker': 374942}</t>
-  </si>
-  <si>
-    <t>{'Total': 1062749, 'Stellar Detonation': 454122, 'attack': 608627}</t>
-  </si>
-  <si>
-    <t>{'Total': 5129091, 'Gungnir': 4353959, 'attack': 775132}</t>
-  </si>
-  <si>
-    <t>{'Total': 1395234, 'attack': 343890, 'Bipolar Reversal': 1051345}</t>
-  </si>
-  <si>
-    <t>{'Total': 3124041, 'Goddess Benison': 1581371, 'Inviolability': 871187, 'attack': 671483}</t>
-  </si>
-  <si>
-    <t>{'Total': 652799, 'attack': 151858, 'Cleric Shine': 500941}</t>
-  </si>
-  <si>
-    <t>{'Total': 2020138, 'attack': 557848, 'Cutting Wolf Claw': 1462290}</t>
-  </si>
-  <si>
-    <t>{'Total': 1148492, 'Wolf Claw Sunder': 754508, 'attack': 393983}</t>
-  </si>
-  <si>
-    <t>{'Total': 899764, 'Power Of Hades': 615699, 'attack': 284066}</t>
-  </si>
-  <si>
-    <t>{'Total': 2800668, 'attack': 988636, 'Betrayal Provocation': 1812032}</t>
+    <t>{'Total': 247086, 'Abyssal Blade': 155021, 'attack': 92065}</t>
+  </si>
+  <si>
+    <t>{'Total': 877724, 'Strangle': 756040, 'attack': 121684}</t>
+  </si>
+  <si>
+    <t>{'Total': 680261, 'Power Torture': 478190, 'attack': 202071}</t>
+  </si>
+  <si>
+    <t>{'Total': 1392997, 'Dual Throwing Axe': 861774, 'attack': 226756, 'Toxic Blade': 304466}</t>
+  </si>
+  <si>
+    <t>{'Total': 2059047, 'Black Hole Generated': 1932514, 'attack': 126532}</t>
+  </si>
+  <si>
+    <t>{'Total': 544199, 'Dark Omen': 258491, 'attack': 169074, 'Erode Bone': 116634}</t>
+  </si>
+  <si>
+    <t>{'Total': 845847, 'Heart-Taking Thorn': 692368, 'attack': 153479}</t>
+  </si>
+  <si>
+    <t>{'Total': 364432, 'Spider Attack': 287468, 'attack': 76964}</t>
+  </si>
+  <si>
+    <t>{'Total': 590750, 'Hollow Descent': 459739, 'attack': 131011}</t>
+  </si>
+  <si>
+    <t>{'Total': 343813, 'Wheel Of Torture': 249399, 'attack': 94414}</t>
+  </si>
+  <si>
+    <t>{'Total': 310755, "Nature's Power": 127544, 'Leech Seed': 100899, 'attack': 82311}</t>
+  </si>
+  <si>
+    <t>{'Total': 395868, 'Soul Pulse': 286598, 'attack': 109270}</t>
+  </si>
+  <si>
+    <t>{'Total': 728672, 'attack': 243267, 'Blood Axe': 485405}</t>
+  </si>
+  <si>
+    <t>{'Total': 961878, 'Throat Blade': 638220, 'attack': 323658}</t>
+  </si>
+  <si>
+    <t>{'Total': 464401, 'Shooting Star': 263196, 'attack': 201206}</t>
+  </si>
+  <si>
+    <t>{'Total': 883823, 'Eye Of Thunderstorm': 776729, 'attack': 107093}</t>
+  </si>
+  <si>
+    <t>{'Total': 588665, 'Hand Of God': 456532, 'attack': 132133}</t>
+  </si>
+  <si>
+    <t>{'Total': 794938, 'Viper Arrow': 517652, 'attack': 277285}</t>
+  </si>
+  <si>
+    <t>{'Total': 310065, 'Sacred Heal': 227006, 'attack': 65403, 'Forbidden Tome': 17655}</t>
+  </si>
+  <si>
+    <t>{'Total': 398238, 'Fury Swipes': 294443, 'attack': 103796}</t>
+  </si>
+  <si>
+    <t>{'Total': 1138474, 'Fight Against Buddha': 431681, 'Boundless Strike': 507519, 'attack': 99060, 'Cudgel Mastery': 100213}</t>
+  </si>
+  <si>
+    <t>{'Total': 465185, 'Gale Cut': 356569, 'attack': 108616}</t>
+  </si>
+  <si>
+    <t>{'Total': 1291130, 'Lightning Storm': 924552, 'Dragon Sphere': 77679, 'attack': 211773, 'Sign Of Sun': 77124}</t>
+  </si>
+  <si>
+    <t>{'Total': 970779, 'Red Lotus Fire': 691576, 'attack': 133061, 'Breathing Hot': 146142}</t>
+  </si>
+  <si>
+    <t>{'Total': 350222, 'Starstorm': 261121, 'attack': 89101}</t>
+  </si>
+  <si>
+    <t>{'Total': 593234, 'Fatal Wave': 410846, 'attack': 111652, 'Pit Of Malice': 70736}</t>
+  </si>
+  <si>
+    <t>{'Total': 1009894, 'Venom Wind': 510027, 'attack': 118184, 'Poison Dagger': 278316, 'Poison Nova': 103366}</t>
+  </si>
+  <si>
+    <t>{'Total': 187074, 'attack': 88529, 'Nightmare': 98545}</t>
+  </si>
+  <si>
+    <t>{'Total': 881648, 'Kifuu': 655437, 'attack': 146945, 'Flash': 79266}</t>
+  </si>
+  <si>
+    <t>{'Total': 580624, 'Whirlwind Of Death': 482525, 'attack': 98099}</t>
+  </si>
+  <si>
+    <t>{'Total': 688313, 'Poison Nova': 358554, 'attack': 54662, 'Corrosive Skin': 95235, 'Poison Touch': 67375, 'Malefic': 112488}</t>
+  </si>
+  <si>
+    <t>{'Total': 480689, 'Tentacle Attack': 363048, 'attack': 117641}</t>
+  </si>
+  <si>
+    <t>{'Total': 398433, 'Plasma Field': 297697, 'attack': 100736}</t>
+  </si>
+  <si>
+    <t>{'Total': 719193, 'Tiger Attack': 527998, 'attack': 84198, 'Shield Breaker': 106998}</t>
+  </si>
+  <si>
+    <t>{'Total': 210395, 'Stellar Detonation': 96003, 'attack': 114392}</t>
+  </si>
+  <si>
+    <t>{'Total': 1313003, 'Gungnir': 1116996, 'attack': 196007}</t>
+  </si>
+  <si>
+    <t>{'Total': 403045, 'attack': 97276, 'Bipolar Reversal': 305769}</t>
+  </si>
+  <si>
+    <t>{'Total': 671682, 'Inviolability': 175742, 'Goddess Benison': 359065, 'attack': 136876}</t>
+  </si>
+  <si>
+    <t>{'Total': 167583, 'Cleric Shine': 122913, 'attack': 44670}</t>
+  </si>
+  <si>
+    <t>{'Total': 393418, 'attack': 111499, 'Cutting Wolf Claw': 281919}</t>
+  </si>
+  <si>
+    <t>{'Total': 298301, 'Wolf Claw Sunder': 202052, 'attack': 96249}</t>
+  </si>
+  <si>
+    <t>{'Total': 233137, 'Power Of Hades': 165816, 'attack': 67321}</t>
+  </si>
+  <si>
+    <t>{'Total': 743074, 'Betrayal Provocation': 519319, 'attack': 223755}</t>
   </si>
 </sst>
 </file>
@@ -632,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,19 +672,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>16765846</v>
+        <v>3968657</v>
       </c>
       <c r="C2">
-        <v>-55</v>
+        <v>-24</v>
       </c>
       <c r="D2">
-        <v>787402</v>
+        <v>247086</v>
       </c>
       <c r="E2">
-        <v>14.97</v>
+        <v>14.61</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -680,19 +692,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>19407614</v>
+        <v>4088106</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>-9</v>
       </c>
       <c r="D3">
-        <v>4923796</v>
+        <v>877724</v>
       </c>
       <c r="E3">
-        <v>13.52</v>
+        <v>7.21</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -700,19 +712,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>18988141</v>
+        <v>4316486</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>3957722</v>
+        <v>680261</v>
       </c>
       <c r="E4">
-        <v>14.81</v>
+        <v>9.5</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -720,19 +732,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20472440</v>
+        <v>4620873</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>5926185</v>
+        <v>1392997</v>
       </c>
       <c r="E5">
-        <v>13.91</v>
+        <v>11.04</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -740,19 +752,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>24962710</v>
+        <v>5259498</v>
       </c>
       <c r="C6">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>10473196</v>
+        <v>2059047</v>
       </c>
       <c r="E6">
-        <v>13.54</v>
+        <v>10.41</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -760,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>20956649</v>
+        <v>3796184</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>-49</v>
       </c>
       <c r="D7">
-        <v>3429783</v>
+        <v>544199</v>
       </c>
       <c r="E7">
-        <v>14.95</v>
+        <v>8.99</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,19 +792,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>16605630</v>
+        <v>5558188</v>
       </c>
       <c r="C8">
-        <v>-63</v>
+        <v>202</v>
       </c>
       <c r="D8">
-        <v>2222451</v>
+        <v>845847</v>
       </c>
       <c r="E8">
-        <v>11.58</v>
+        <v>14.67</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -800,19 +812,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>17624077</v>
+        <v>3558814</v>
       </c>
       <c r="C9">
-        <v>-15</v>
+        <v>-82</v>
       </c>
       <c r="D9">
-        <v>2836683</v>
+        <v>364432</v>
       </c>
       <c r="E9">
-        <v>13.49</v>
+        <v>6.64</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -820,19 +832,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>17428534</v>
+        <v>3966951</v>
       </c>
       <c r="C10">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="D10">
-        <v>1655268</v>
+        <v>590750</v>
       </c>
       <c r="E10">
-        <v>11.99</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -840,19 +852,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>17906227</v>
+        <v>3858636</v>
       </c>
       <c r="C11">
-        <v>-2</v>
+        <v>-39</v>
       </c>
       <c r="D11">
-        <v>1113187</v>
+        <v>343813</v>
       </c>
       <c r="E11">
-        <v>14.73</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -860,19 +872,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>17107006</v>
+        <v>4231346</v>
       </c>
       <c r="C12">
-        <v>-40</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>1637300</v>
+        <v>310755</v>
       </c>
       <c r="E12">
-        <v>13.74</v>
+        <v>14.34</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,19 +892,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>17965703</v>
+        <v>3891768</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="D13">
-        <v>2742184</v>
+        <v>395868</v>
       </c>
       <c r="E13">
-        <v>12.95</v>
+        <v>10.91</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,19 +912,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>18648288</v>
+        <v>4159407</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>3549904</v>
+        <v>728672</v>
       </c>
       <c r="E14">
-        <v>14.38</v>
+        <v>10.47</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,19 +932,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>17752746</v>
+        <v>4475650</v>
       </c>
       <c r="C15">
-        <v>-9</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>2088201</v>
+        <v>961878</v>
       </c>
       <c r="E15">
-        <v>12.22</v>
+        <v>11.62</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,19 +952,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>20806781</v>
+        <v>3974723</v>
       </c>
       <c r="C16">
-        <v>133</v>
+        <v>-24</v>
       </c>
       <c r="D16">
-        <v>5653479</v>
+        <v>464401</v>
       </c>
       <c r="E16">
-        <v>14.85</v>
+        <v>9.75</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,19 +972,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>17346822</v>
+        <v>4646228</v>
       </c>
       <c r="C17">
-        <v>-28</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>2933837</v>
+        <v>883823</v>
       </c>
       <c r="E17">
-        <v>12.8</v>
+        <v>9.94</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -980,19 +992,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>17956816</v>
+        <v>3789919</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="D18">
-        <v>2991223</v>
+        <v>588665</v>
       </c>
       <c r="E18">
-        <v>14.74</v>
+        <v>9.32</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1000,19 +1012,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>17386585</v>
+        <v>4205113</v>
       </c>
       <c r="C19">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>1340160</v>
+        <v>794938</v>
       </c>
       <c r="E19">
-        <v>10.42</v>
+        <v>11.98</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1020,19 +1032,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>17233545</v>
+        <v>4112848</v>
       </c>
       <c r="C20">
-        <v>-34</v>
+        <v>-6</v>
       </c>
       <c r="D20">
-        <v>1272091</v>
+        <v>310065</v>
       </c>
       <c r="E20">
-        <v>14.98</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,19 +1052,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>19872448</v>
+        <v>3950375</v>
       </c>
       <c r="C21">
-        <v>89</v>
+        <v>-27</v>
       </c>
       <c r="D21">
-        <v>4698063</v>
+        <v>398238</v>
       </c>
       <c r="E21">
-        <v>12.67</v>
+        <v>14.44</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1060,19 +1072,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>18256777</v>
+        <v>4500991</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>1553716</v>
+        <v>1138474</v>
       </c>
       <c r="E22">
-        <v>14.86</v>
+        <v>10.72</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1080,19 +1092,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>19740820</v>
+        <v>4270778</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>5295627</v>
+        <v>465185</v>
       </c>
       <c r="E23">
-        <v>14.67</v>
+        <v>13.86</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1100,19 +1112,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>16676791</v>
+        <v>4492429</v>
       </c>
       <c r="C24">
-        <v>-60</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>1868732</v>
+        <v>1291130</v>
       </c>
       <c r="E24">
-        <v>13.91</v>
+        <v>13.1</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1120,19 +1132,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>17369655</v>
+        <v>6839794</v>
       </c>
       <c r="C25">
-        <v>-27</v>
+        <v>383</v>
       </c>
       <c r="D25">
-        <v>3007169</v>
+        <v>970779</v>
       </c>
       <c r="E25">
-        <v>11.76</v>
+        <v>13.96</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1140,19 +1152,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>19199124</v>
+        <v>3667890</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>-67</v>
       </c>
       <c r="D26">
-        <v>4556465</v>
+        <v>350222</v>
       </c>
       <c r="E26">
-        <v>13.55</v>
+        <v>6.75</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1160,19 +1172,19 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>17734468</v>
+        <v>3778077</v>
       </c>
       <c r="C27">
-        <v>-10</v>
+        <v>-52</v>
       </c>
       <c r="D27">
-        <v>691504</v>
+        <v>593234</v>
       </c>
       <c r="E27">
-        <v>14.81</v>
+        <v>7.36</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1180,19 +1192,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>18530133</v>
+        <v>4340188</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>4149836</v>
+        <v>1009894</v>
       </c>
       <c r="E28">
-        <v>12.99</v>
+        <v>7.86</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1200,19 +1212,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>16908410</v>
+        <v>4261989</v>
       </c>
       <c r="C29">
-        <v>-49</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>2108108</v>
+        <v>187074</v>
       </c>
       <c r="E29">
-        <v>14.24</v>
+        <v>14.21</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1220,19 +1232,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>17713026</v>
+        <v>4072700</v>
       </c>
       <c r="C30">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D30">
-        <v>3336409</v>
+        <v>881648</v>
       </c>
       <c r="E30">
-        <v>9.18</v>
+        <v>9.34</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1240,19 +1252,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>19676620</v>
+        <v>3956315</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>-27</v>
       </c>
       <c r="D31">
-        <v>2208773</v>
+        <v>580624</v>
       </c>
       <c r="E31">
-        <v>14.39</v>
+        <v>10.26</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1260,19 +1272,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>16972983</v>
+        <v>3905256</v>
       </c>
       <c r="C32">
-        <v>-46</v>
+        <v>-33</v>
       </c>
       <c r="D32">
-        <v>1818420</v>
+        <v>688313</v>
       </c>
       <c r="E32">
-        <v>14.09</v>
+        <v>5.29</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1280,19 +1292,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>18953968</v>
+        <v>5057090</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D33">
-        <v>2474193</v>
+        <v>480689</v>
       </c>
       <c r="E33">
-        <v>14.99</v>
+        <v>12.56</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1300,19 +1312,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>19105212</v>
+        <v>3992145</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>-21</v>
       </c>
       <c r="D34">
-        <v>1062749</v>
+        <v>398433</v>
       </c>
       <c r="E34">
-        <v>13.03</v>
+        <v>10.59</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1320,19 +1332,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>22060895</v>
+        <v>4467669</v>
       </c>
       <c r="C35">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>5129091</v>
+        <v>719193</v>
       </c>
       <c r="E35">
-        <v>13.28</v>
+        <v>14.89</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1340,19 +1352,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>17825685</v>
+        <v>4073529</v>
       </c>
       <c r="C36">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="D36">
-        <v>1395234</v>
+        <v>210395</v>
       </c>
       <c r="E36">
-        <v>14.96</v>
+        <v>8.67</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1360,19 +1372,19 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>22656272</v>
+        <v>5384393</v>
       </c>
       <c r="C37">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D37">
-        <v>3124041</v>
+        <v>1313003</v>
       </c>
       <c r="E37">
-        <v>14.41</v>
+        <v>11.74</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1380,19 +1392,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>17446240</v>
+        <v>4146485</v>
       </c>
       <c r="C38">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>652799</v>
+        <v>403045</v>
       </c>
       <c r="E38">
-        <v>11.93</v>
+        <v>14.74</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1400,19 +1412,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>17039907</v>
+        <v>5070100</v>
       </c>
       <c r="C39">
-        <v>-43</v>
+        <v>132</v>
       </c>
       <c r="D39">
-        <v>2020138</v>
+        <v>671682</v>
       </c>
       <c r="E39">
-        <v>14.32</v>
+        <v>13.26</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1420,19 +1432,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>18888009</v>
+        <v>4570520</v>
       </c>
       <c r="C40">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D40">
-        <v>1148492</v>
+        <v>167583</v>
       </c>
       <c r="E40">
-        <v>13.66</v>
+        <v>13.92</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1440,19 +1452,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>17067891</v>
+        <v>3964166</v>
       </c>
       <c r="C41">
-        <v>-41</v>
+        <v>-24</v>
       </c>
       <c r="D41">
-        <v>899764</v>
+        <v>393418</v>
       </c>
       <c r="E41">
-        <v>14.85</v>
+        <v>10.3</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1460,19 +1472,59 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>17977636</v>
+        <v>4319137</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>2800668</v>
+        <v>298301</v>
       </c>
       <c r="E42">
-        <v>14.77</v>
+        <v>12.35</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>3782255</v>
+      </c>
+      <c r="C43">
+        <v>-52</v>
+      </c>
+      <c r="D43">
+        <v>233137</v>
+      </c>
+      <c r="E43">
+        <v>13.24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>4037149</v>
+      </c>
+      <c r="C44">
+        <v>-15</v>
+      </c>
+      <c r="D44">
+        <v>743074</v>
+      </c>
+      <c r="E44">
+        <v>12.68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/results_guild_boss.xlsx
+++ b/data/results_guild_boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>damage</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Shudde_M'ell</t>
   </si>
   <si>
+    <t>Skuld</t>
+  </si>
+  <si>
     <t>Tesla</t>
   </si>
   <si>
@@ -160,133 +163,136 @@
     <t>Xexanoth</t>
   </si>
   <si>
-    <t>{'Total': 247086, 'Abyssal Blade': 155021, 'attack': 92065}</t>
-  </si>
-  <si>
-    <t>{'Total': 877724, 'Strangle': 756040, 'attack': 121684}</t>
-  </si>
-  <si>
-    <t>{'Total': 680261, 'Power Torture': 478190, 'attack': 202071}</t>
-  </si>
-  <si>
-    <t>{'Total': 1392997, 'Dual Throwing Axe': 861774, 'attack': 226756, 'Toxic Blade': 304466}</t>
-  </si>
-  <si>
-    <t>{'Total': 2059047, 'Black Hole Generated': 1932514, 'attack': 126532}</t>
-  </si>
-  <si>
-    <t>{'Total': 544199, 'Dark Omen': 258491, 'attack': 169074, 'Erode Bone': 116634}</t>
-  </si>
-  <si>
-    <t>{'Total': 845847, 'Heart-Taking Thorn': 692368, 'attack': 153479}</t>
-  </si>
-  <si>
-    <t>{'Total': 364432, 'Spider Attack': 287468, 'attack': 76964}</t>
-  </si>
-  <si>
-    <t>{'Total': 590750, 'Hollow Descent': 459739, 'attack': 131011}</t>
-  </si>
-  <si>
-    <t>{'Total': 343813, 'Wheel Of Torture': 249399, 'attack': 94414}</t>
-  </si>
-  <si>
-    <t>{'Total': 310755, "Nature's Power": 127544, 'Leech Seed': 100899, 'attack': 82311}</t>
-  </si>
-  <si>
-    <t>{'Total': 395868, 'Soul Pulse': 286598, 'attack': 109270}</t>
-  </si>
-  <si>
-    <t>{'Total': 728672, 'attack': 243267, 'Blood Axe': 485405}</t>
-  </si>
-  <si>
-    <t>{'Total': 961878, 'Throat Blade': 638220, 'attack': 323658}</t>
-  </si>
-  <si>
-    <t>{'Total': 464401, 'Shooting Star': 263196, 'attack': 201206}</t>
-  </si>
-  <si>
-    <t>{'Total': 883823, 'Eye Of Thunderstorm': 776729, 'attack': 107093}</t>
-  </si>
-  <si>
-    <t>{'Total': 588665, 'Hand Of God': 456532, 'attack': 132133}</t>
-  </si>
-  <si>
-    <t>{'Total': 794938, 'Viper Arrow': 517652, 'attack': 277285}</t>
-  </si>
-  <si>
-    <t>{'Total': 310065, 'Sacred Heal': 227006, 'attack': 65403, 'Forbidden Tome': 17655}</t>
-  </si>
-  <si>
-    <t>{'Total': 398238, 'Fury Swipes': 294443, 'attack': 103796}</t>
-  </si>
-  <si>
-    <t>{'Total': 1138474, 'Fight Against Buddha': 431681, 'Boundless Strike': 507519, 'attack': 99060, 'Cudgel Mastery': 100213}</t>
-  </si>
-  <si>
-    <t>{'Total': 465185, 'Gale Cut': 356569, 'attack': 108616}</t>
-  </si>
-  <si>
-    <t>{'Total': 1291130, 'Lightning Storm': 924552, 'Dragon Sphere': 77679, 'attack': 211773, 'Sign Of Sun': 77124}</t>
-  </si>
-  <si>
-    <t>{'Total': 970779, 'Red Lotus Fire': 691576, 'attack': 133061, 'Breathing Hot': 146142}</t>
-  </si>
-  <si>
-    <t>{'Total': 350222, 'Starstorm': 261121, 'attack': 89101}</t>
-  </si>
-  <si>
-    <t>{'Total': 593234, 'Fatal Wave': 410846, 'attack': 111652, 'Pit Of Malice': 70736}</t>
-  </si>
-  <si>
-    <t>{'Total': 1009894, 'Venom Wind': 510027, 'attack': 118184, 'Poison Dagger': 278316, 'Poison Nova': 103366}</t>
-  </si>
-  <si>
-    <t>{'Total': 187074, 'attack': 88529, 'Nightmare': 98545}</t>
-  </si>
-  <si>
-    <t>{'Total': 881648, 'Kifuu': 655437, 'attack': 146945, 'Flash': 79266}</t>
-  </si>
-  <si>
-    <t>{'Total': 580624, 'Whirlwind Of Death': 482525, 'attack': 98099}</t>
-  </si>
-  <si>
-    <t>{'Total': 688313, 'Poison Nova': 358554, 'attack': 54662, 'Corrosive Skin': 95235, 'Poison Touch': 67375, 'Malefic': 112488}</t>
-  </si>
-  <si>
-    <t>{'Total': 480689, 'Tentacle Attack': 363048, 'attack': 117641}</t>
-  </si>
-  <si>
-    <t>{'Total': 398433, 'Plasma Field': 297697, 'attack': 100736}</t>
-  </si>
-  <si>
-    <t>{'Total': 719193, 'Tiger Attack': 527998, 'attack': 84198, 'Shield Breaker': 106998}</t>
-  </si>
-  <si>
-    <t>{'Total': 210395, 'Stellar Detonation': 96003, 'attack': 114392}</t>
-  </si>
-  <si>
-    <t>{'Total': 1313003, 'Gungnir': 1116996, 'attack': 196007}</t>
-  </si>
-  <si>
-    <t>{'Total': 403045, 'attack': 97276, 'Bipolar Reversal': 305769}</t>
-  </si>
-  <si>
-    <t>{'Total': 671682, 'Inviolability': 175742, 'Goddess Benison': 359065, 'attack': 136876}</t>
-  </si>
-  <si>
-    <t>{'Total': 167583, 'Cleric Shine': 122913, 'attack': 44670}</t>
-  </si>
-  <si>
-    <t>{'Total': 393418, 'attack': 111499, 'Cutting Wolf Claw': 281919}</t>
-  </si>
-  <si>
-    <t>{'Total': 298301, 'Wolf Claw Sunder': 202052, 'attack': 96249}</t>
-  </si>
-  <si>
-    <t>{'Total': 233137, 'Power Of Hades': 165816, 'attack': 67321}</t>
-  </si>
-  <si>
-    <t>{'Total': 743074, 'Betrayal Provocation': 519319, 'attack': 223755}</t>
+    <t>{'Total': 263682, 'Abyssal Blade': 163977, 'attack': 99705}</t>
+  </si>
+  <si>
+    <t>{'Total': 1014804, 'Strangle': 865860, 'attack': 148944}</t>
+  </si>
+  <si>
+    <t>{'Total': 765253, 'Power Torture': 539521, 'attack': 225732}</t>
+  </si>
+  <si>
+    <t>{'Total': 1531383, 'Dual Throwing Axe': 931550, 'attack': 248273, 'Toxic Blade': 351561}</t>
+  </si>
+  <si>
+    <t>{'Total': 2339482, 'Black Hole Generated': 2197376, 'attack': 142106}</t>
+  </si>
+  <si>
+    <t>{'Total': 611915, 'Dark Omen': 286279, 'attack': 194087, 'Erode Bone': 131550}</t>
+  </si>
+  <si>
+    <t>{'Total': 889134, 'Heart-Taking Thorn': 727783, 'attack': 161351}</t>
+  </si>
+  <si>
+    <t>{'Total': 423732, 'Spider Attack': 329541, 'attack': 94192}</t>
+  </si>
+  <si>
+    <t>{'Total': 641667, 'Hollow Descent': 495680, 'attack': 145987}</t>
+  </si>
+  <si>
+    <t>{'Total': 398615, 'Wheel Of Torture': 288724, 'attack': 109891}</t>
+  </si>
+  <si>
+    <t>{'Total': 330729, 'Leech Seed': 108219, 'attack': 89350, "Nature's Power": 133160}</t>
+  </si>
+  <si>
+    <t>{'Total': 281856, 'Soul Pulse': 210698, 'attack': 71158}</t>
+  </si>
+  <si>
+    <t>{'Total': 817146, 'attack': 275398, 'Blood Axe': 541747}</t>
+  </si>
+  <si>
+    <t>{'Total': 1018090, 'Throat Blade': 671643, 'attack': 346447}</t>
+  </si>
+  <si>
+    <t>{'Total': 514178, 'Shooting Star': 291250, 'attack': 222928}</t>
+  </si>
+  <si>
+    <t>{'Total': 1291150, 'Eye Of Thunderstorm': 1134300, 'attack': 156850}</t>
+  </si>
+  <si>
+    <t>{'Total': 636977, 'Hand Of God': 490323, 'attack': 146654}</t>
+  </si>
+  <si>
+    <t>{'Total': 862845, 'Viper Arrow': 557662, 'attack': 305182}</t>
+  </si>
+  <si>
+    <t>{'Total': 358429, 'Sacred Heal': 265090, 'attack': 74867, 'Forbidden Tome': 18472}</t>
+  </si>
+  <si>
+    <t>{'Total': 429752, 'Fury Swipes': 317148, 'attack': 112605}</t>
+  </si>
+  <si>
+    <t>{'Total': 1223794, 'Fight Against Buddha': 456949, 'Boundless Strike': 548370, 'attack': 110132, 'Cudgel Mastery': 108343}</t>
+  </si>
+  <si>
+    <t>{'Total': 500215, 'Gale Cut': 382158, 'attack': 118057}</t>
+  </si>
+  <si>
+    <t>{'Total': 1522564, 'Lightning Storm': 1076776, 'Dragon Sphere': 87958, 'attack': 266460, 'Sign Of Sun': 91369}</t>
+  </si>
+  <si>
+    <t>{'Total': 1022223, 'Red Lotus Fire': 721504, 'attack': 145225, 'Breathing Hot': 155494}</t>
+  </si>
+  <si>
+    <t>{'Total': 411180, 'Starstorm': 303101, 'attack': 108079}</t>
+  </si>
+  <si>
+    <t>{'Total': 691702, 'Fatal Wave': 484649, 'attack': 138661, 'Pit Of Malice': 68391}</t>
+  </si>
+  <si>
+    <t>{'Total': 1137648, 'Venom Wind': 575661, 'attack': 141293, 'Poison Dagger': 314793, 'Poison Nova': 105900}</t>
+  </si>
+  <si>
+    <t>{'Total': 202508, 'attack': 95875, 'Nightmare': 106633}</t>
+  </si>
+  <si>
+    <t>{'Total': 991177, 'Kifuu': 727963, 'attack': 172608, 'Flash': 90606}</t>
+  </si>
+  <si>
+    <t>{'Total': 645203, 'Whirlwind Of Death': 535717, 'attack': 109486}</t>
+  </si>
+  <si>
+    <t>{'Total': 807236, 'Poison Nova': 423761, 'attack': 70702, 'Poison Touch': 85524, 'Corrosive Skin': 116620, 'Malefic': 110629}</t>
+  </si>
+  <si>
+    <t>{'Total': 521152, 'Tentacle Attack': 394073, 'attack': 127079}</t>
+  </si>
+  <si>
+    <t>{'Total': 609089, 'Divine Revelation': 427200, 'attack': 181889}</t>
+  </si>
+  <si>
+    <t>{'Total': 439766, 'Plasma Field': 327625, 'attack': 112141}</t>
+  </si>
+  <si>
+    <t>{'Total': 755971, 'Tiger Attack': 553207, 'attack': 90957, 'Shield Breaker': 111808}</t>
+  </si>
+  <si>
+    <t>{'Total': 235259, 'Stellar Detonation': 106437, 'attack': 128821}</t>
+  </si>
+  <si>
+    <t>{'Total': 1485410, 'Gungnir': 1260037, 'attack': 225373}</t>
+  </si>
+  <si>
+    <t>{'Total': 426756, 'attack': 102472, 'Bipolar Reversal': 324284}</t>
+  </si>
+  <si>
+    <t>{'Total': 841614, 'Goddess Benison': 439119, 'attack': 180759, 'Inviolability': 221736}</t>
+  </si>
+  <si>
+    <t>{'Total': 183141, 'Cleric Shine': 134012, 'attack': 49130}</t>
+  </si>
+  <si>
+    <t>{'Total': 445910, 'attack': 124821, 'Cutting Wolf Claw': 321089}</t>
+  </si>
+  <si>
+    <t>{'Total': 327177, 'Wolf Claw Sunder': 219145, 'attack': 108032}</t>
+  </si>
+  <si>
+    <t>{'Total': 437598, 'Power Of Hades': 334604, 'attack': 102994}</t>
+  </si>
+  <si>
+    <t>{'Total': 788377, 'Betrayal Provocation': 550336, 'attack': 238041}</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,19 +678,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3968657</v>
+        <v>4430935</v>
       </c>
       <c r="C2">
-        <v>-24</v>
+        <v>-38</v>
       </c>
       <c r="D2">
-        <v>247086</v>
+        <v>263682</v>
       </c>
       <c r="E2">
-        <v>14.61</v>
+        <v>14.74</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -692,19 +698,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4088106</v>
+        <v>4584390</v>
       </c>
       <c r="C3">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="D3">
-        <v>877724</v>
+        <v>1014804</v>
       </c>
       <c r="E3">
-        <v>7.21</v>
+        <v>8.07</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -712,19 +718,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4316486</v>
+        <v>4870493</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>680261</v>
+        <v>765253</v>
       </c>
       <c r="E4">
-        <v>9.5</v>
+        <v>10.17</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -732,19 +738,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4620873</v>
+        <v>5120129</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>1392997</v>
+        <v>1531383</v>
       </c>
       <c r="E5">
-        <v>11.04</v>
+        <v>11.44</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,19 +758,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5259498</v>
+        <v>5909119</v>
       </c>
       <c r="C6">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>2059047</v>
+        <v>2339482</v>
       </c>
       <c r="E6">
-        <v>10.41</v>
+        <v>10.99</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -772,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3796184</v>
+        <v>4260883</v>
       </c>
       <c r="C7">
-        <v>-49</v>
+        <v>-62</v>
       </c>
       <c r="D7">
-        <v>544199</v>
+        <v>611915</v>
       </c>
       <c r="E7">
-        <v>8.99</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,19 +798,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>5558188</v>
+        <v>5978602</v>
       </c>
       <c r="C8">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>845847</v>
+        <v>889134</v>
       </c>
       <c r="E8">
-        <v>14.67</v>
+        <v>14.8</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -812,19 +818,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3558814</v>
+        <v>3954949</v>
       </c>
       <c r="C9">
-        <v>-82</v>
+        <v>-106</v>
       </c>
       <c r="D9">
-        <v>364432</v>
+        <v>423732</v>
       </c>
       <c r="E9">
-        <v>6.64</v>
+        <v>7.47</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -832,19 +838,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>3966951</v>
+        <v>4363921</v>
       </c>
       <c r="C10">
-        <v>-24</v>
+        <v>-47</v>
       </c>
       <c r="D10">
-        <v>590750</v>
+        <v>641667</v>
       </c>
       <c r="E10">
-        <v>9.529999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -852,19 +858,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3858636</v>
+        <v>4370432</v>
       </c>
       <c r="C11">
-        <v>-39</v>
+        <v>-46</v>
       </c>
       <c r="D11">
-        <v>343813</v>
+        <v>398615</v>
       </c>
       <c r="E11">
-        <v>8.140000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -872,19 +878,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>4231346</v>
+        <v>4728910</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>310755</v>
+        <v>330729</v>
       </c>
       <c r="E12">
-        <v>14.34</v>
+        <v>14.49</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -892,19 +898,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>3891768</v>
+        <v>4233248</v>
       </c>
       <c r="C13">
-        <v>-36</v>
+        <v>-66</v>
       </c>
       <c r="D13">
-        <v>395868</v>
+        <v>281856</v>
       </c>
       <c r="E13">
-        <v>10.91</v>
+        <v>6.58</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -912,19 +918,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4159407</v>
+        <v>4695045</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>728672</v>
+        <v>817146</v>
       </c>
       <c r="E14">
-        <v>10.47</v>
+        <v>11.04</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -932,19 +938,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>4475650</v>
+        <v>4925548</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>961878</v>
+        <v>1018090</v>
       </c>
       <c r="E15">
-        <v>11.62</v>
+        <v>12.03</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -952,19 +958,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3974723</v>
+        <v>4479772</v>
       </c>
       <c r="C16">
-        <v>-24</v>
+        <v>-31</v>
       </c>
       <c r="D16">
-        <v>464401</v>
+        <v>514178</v>
       </c>
       <c r="E16">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -972,19 +978,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>4646228</v>
+        <v>5479409</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>883823</v>
+        <v>1291150</v>
       </c>
       <c r="E17">
-        <v>9.94</v>
+        <v>10.2</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -992,19 +998,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>3789919</v>
+        <v>4217953</v>
       </c>
       <c r="C18">
-        <v>-52</v>
+        <v>-68</v>
       </c>
       <c r="D18">
-        <v>588665</v>
+        <v>636977</v>
       </c>
       <c r="E18">
-        <v>9.32</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1012,19 +1018,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>4205113</v>
+        <v>4694735</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>794938</v>
+        <v>862845</v>
       </c>
       <c r="E19">
-        <v>11.98</v>
+        <v>12.37</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1032,19 +1038,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>4112848</v>
+        <v>4634786</v>
       </c>
       <c r="C20">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="D20">
-        <v>310065</v>
+        <v>358429</v>
       </c>
       <c r="E20">
-        <v>9.130000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,19 +1058,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>3950375</v>
+        <v>4441838</v>
       </c>
       <c r="C21">
-        <v>-27</v>
+        <v>-36</v>
       </c>
       <c r="D21">
-        <v>398238</v>
+        <v>429752</v>
       </c>
       <c r="E21">
-        <v>14.44</v>
+        <v>14.59</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1072,19 +1078,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>4500991</v>
+        <v>4989154</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>1138474</v>
+        <v>1223794</v>
       </c>
       <c r="E22">
-        <v>10.72</v>
+        <v>11.11</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1092,19 +1098,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>4270778</v>
+        <v>4764264</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>465185</v>
+        <v>500215</v>
       </c>
       <c r="E23">
-        <v>13.86</v>
+        <v>13.96</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1112,19 +1118,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>4492429</v>
+        <v>5171282</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>1291130</v>
+        <v>1522564</v>
       </c>
       <c r="E24">
-        <v>13.1</v>
+        <v>13.58</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1132,19 +1138,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>6839794</v>
+        <v>7613498</v>
       </c>
       <c r="C25">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="D25">
-        <v>970779</v>
+        <v>1022223</v>
       </c>
       <c r="E25">
-        <v>13.96</v>
+        <v>14.19</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1152,19 +1158,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>3667890</v>
+        <v>4072312</v>
       </c>
       <c r="C26">
-        <v>-67</v>
+        <v>-89</v>
       </c>
       <c r="D26">
-        <v>350222</v>
+        <v>411180</v>
       </c>
       <c r="E26">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1172,19 +1178,19 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>3778077</v>
+        <v>4241512</v>
       </c>
       <c r="C27">
-        <v>-52</v>
+        <v>-65</v>
       </c>
       <c r="D27">
-        <v>593234</v>
+        <v>691702</v>
       </c>
       <c r="E27">
-        <v>7.36</v>
+        <v>8.24</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1192,19 +1198,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>4340188</v>
+        <v>4799921</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>1009894</v>
+        <v>1137648</v>
       </c>
       <c r="E28">
-        <v>7.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1212,19 +1218,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>4261989</v>
+        <v>4758357</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>187074</v>
+        <v>202508</v>
       </c>
       <c r="E29">
-        <v>14.21</v>
+        <v>14.4</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1232,19 +1238,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>4072700</v>
+        <v>4571452</v>
       </c>
       <c r="C30">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="D30">
-        <v>881648</v>
+        <v>991177</v>
       </c>
       <c r="E30">
-        <v>9.34</v>
+        <v>10.03</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1252,19 +1258,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>3956315</v>
+        <v>4428861</v>
       </c>
       <c r="C31">
-        <v>-27</v>
+        <v>-38</v>
       </c>
       <c r="D31">
-        <v>580624</v>
+        <v>645203</v>
       </c>
       <c r="E31">
-        <v>10.26</v>
+        <v>10.74</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1272,19 +1278,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>3905256</v>
+        <v>4364444</v>
       </c>
       <c r="C32">
-        <v>-33</v>
+        <v>-47</v>
       </c>
       <c r="D32">
-        <v>688313</v>
+        <v>807236</v>
       </c>
       <c r="E32">
-        <v>5.29</v>
+        <v>6.19</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1292,19 +1298,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>5057090</v>
+        <v>5496952</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D33">
-        <v>480689</v>
+        <v>521152</v>
       </c>
       <c r="E33">
-        <v>12.56</v>
+        <v>12.93</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1312,19 +1318,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>3992145</v>
+        <v>7093955</v>
       </c>
       <c r="C34">
-        <v>-21</v>
+        <v>343</v>
       </c>
       <c r="D34">
-        <v>398433</v>
+        <v>609089</v>
       </c>
       <c r="E34">
-        <v>10.59</v>
+        <v>14.18</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1332,19 +1338,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>4467669</v>
+        <v>4383899</v>
       </c>
       <c r="C35">
-        <v>46</v>
+        <v>-44</v>
       </c>
       <c r="D35">
-        <v>719193</v>
+        <v>439766</v>
       </c>
       <c r="E35">
-        <v>14.89</v>
+        <v>11.02</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1352,19 +1358,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>4073529</v>
+        <v>4961827</v>
       </c>
       <c r="C36">
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>210395</v>
+        <v>755971</v>
       </c>
       <c r="E36">
-        <v>8.67</v>
+        <v>14.92</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1372,19 +1378,19 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>5384393</v>
+        <v>4643337</v>
       </c>
       <c r="C37">
-        <v>178</v>
+        <v>-7</v>
       </c>
       <c r="D37">
-        <v>1313003</v>
+        <v>235259</v>
       </c>
       <c r="E37">
-        <v>11.74</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1392,19 +1398,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>4146485</v>
+        <v>6151191</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="D38">
-        <v>403045</v>
+        <v>1485410</v>
       </c>
       <c r="E38">
-        <v>14.74</v>
+        <v>12.53</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1412,19 +1418,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>5070100</v>
+        <v>4669019</v>
       </c>
       <c r="C39">
-        <v>132</v>
+        <v>-4</v>
       </c>
       <c r="D39">
-        <v>671682</v>
+        <v>426756</v>
       </c>
       <c r="E39">
-        <v>13.26</v>
+        <v>14.84</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1432,19 +1438,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>4570520</v>
+        <v>5854418</v>
       </c>
       <c r="C40">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="D40">
-        <v>167583</v>
+        <v>841614</v>
       </c>
       <c r="E40">
-        <v>13.92</v>
+        <v>13.5</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1452,19 +1458,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>3964166</v>
+        <v>5050880</v>
       </c>
       <c r="C41">
-        <v>-24</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>393418</v>
+        <v>183141</v>
       </c>
       <c r="E41">
-        <v>10.3</v>
+        <v>14.23</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1472,19 +1478,19 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>4319137</v>
+        <v>4366691</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>-47</v>
       </c>
       <c r="D42">
-        <v>298301</v>
+        <v>445910</v>
       </c>
       <c r="E42">
-        <v>12.35</v>
+        <v>10.87</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1492,19 +1498,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>3782255</v>
+        <v>4841726</v>
       </c>
       <c r="C43">
-        <v>-52</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>233137</v>
+        <v>327177</v>
       </c>
       <c r="E43">
-        <v>13.24</v>
+        <v>12.74</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1512,19 +1518,39 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>4037149</v>
+        <v>4726330</v>
       </c>
       <c r="C44">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>743074</v>
+        <v>437598</v>
       </c>
       <c r="E44">
-        <v>12.68</v>
+        <v>14.94</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>4454757</v>
+      </c>
+      <c r="C45">
+        <v>-34</v>
+      </c>
+      <c r="D45">
+        <v>788377</v>
+      </c>
+      <c r="E45">
+        <v>12.87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
